--- a/data/trans_orig/cron_index-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/cron_index-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6ECAC222-4FE1-4C41-BA10-E0303B984FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA050665-943C-42D0-82C7-A3AD9387C089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C7DD4D6F-27E4-4310-83C7-4FDA60972B93}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EF1A0C7C-915A-42A0-9AF0-45E46902051F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="594">
   <si>
     <t>Índice de cronicidad total en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -83,1741 +83,1708 @@
     <t>0,41%</t>
   </si>
   <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>53,97%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
     <t>0,16%</t>
   </si>
   <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
     <t>0,92%</t>
   </si>
   <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>70,24%</t>
+  </si>
+  <si>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Índice de cronicidad total en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
   </si>
   <si>
     <t>4,16%</t>
   </si>
   <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
   </si>
   <si>
     <t>8,2%</t>
   </si>
   <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
   </si>
   <si>
     <t>19,03%</t>
   </si>
   <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
+  </si>
+  <si>
+    <t>58,68%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>64,0%</t>
+  </si>
+  <si>
+    <t>Índice de cronicidad total en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
   </si>
   <si>
     <t>0,7%</t>
   </si>
   <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
+    <t>2,3%</t>
   </si>
   <si>
     <t>1,97%</t>
   </si>
   <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
   </si>
   <si>
     <t>0,9%</t>
   </si>
   <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
   </si>
   <si>
     <t>2,47%</t>
   </si>
   <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
   </si>
   <si>
     <t>5,21%</t>
   </si>
   <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
-  </si>
-  <si>
-    <t>68,64%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>59,07%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>64,24%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Índice de cronicidad total en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>74,22%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>61,6%</t>
-  </si>
-  <si>
-    <t>64,01%</t>
-  </si>
-  <si>
-    <t>Índice de cronicidad total en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>67,57%</t>
-  </si>
-  <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>70,05%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>69,98%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
   </si>
   <si>
     <t>8,16%</t>
   </si>
   <si>
-    <t>7,23%</t>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
   </si>
   <si>
     <t>9,06%</t>
   </si>
   <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
   </si>
   <si>
     <t>18,33%</t>
   </si>
   <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
   </si>
   <si>
     <t>21,07%</t>
   </si>
   <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
   </si>
   <si>
     <t>19,73%</t>
   </si>
   <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
+    <t>20,77%</t>
   </si>
   <si>
     <t>66,11%</t>
   </si>
   <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>67,7%</t>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
   </si>
   <si>
     <t>59,63%</t>
   </si>
   <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
   </si>
   <si>
     <t>62,8%</t>
   </si>
   <si>
-    <t>63,95%</t>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
   </si>
   <si>
     <t>Índice de cronicidad total en 2023 (Tasa respuesta: 100,0%)</t>
@@ -2265,7 +2232,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B69DDC2-E530-4FEF-A953-A93465794678}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{269DA7B9-F7CE-4762-B4DB-103479C5D4C4}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2473,10 +2440,10 @@
         <v>25</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2494,10 +2461,10 @@
         <v>27</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H6" s="7">
         <v>27</v>
@@ -2506,13 +2473,13 @@
         <v>27322</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M6" s="7">
         <v>44</v>
@@ -2521,13 +2488,13 @@
         <v>42920</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2856,22 +2823,22 @@
         <v>10</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -2880,7 +2847,7 @@
         <v>909</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>10</v>
@@ -2907,7 +2874,7 @@
         <v>10</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -2916,13 +2883,13 @@
         <v>1017</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -2931,13 +2898,13 @@
         <v>1926</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2952,13 +2919,13 @@
         <v>5226</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H15" s="7">
         <v>5</v>
@@ -2967,13 +2934,13 @@
         <v>5964</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M15" s="7">
         <v>10</v>
@@ -2982,13 +2949,13 @@
         <v>11189</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3003,13 +2970,13 @@
         <v>7069</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -3018,13 +2985,13 @@
         <v>5050</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -3033,13 +3000,13 @@
         <v>12119</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3054,13 +3021,13 @@
         <v>28418</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="H17" s="7">
         <v>19</v>
@@ -3069,13 +3036,13 @@
         <v>19471</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M17" s="7">
         <v>48</v>
@@ -3084,13 +3051,13 @@
         <v>47889</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>110</v>
+        <v>24</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3102,16 +3069,16 @@
         <v>56</v>
       </c>
       <c r="D18" s="7">
-        <v>57412</v>
+        <v>57413</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H18" s="7">
         <v>74</v>
@@ -3120,13 +3087,13 @@
         <v>74801</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M18" s="7">
         <v>130</v>
@@ -3135,13 +3102,13 @@
         <v>132213</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3156,13 +3123,13 @@
         <v>251710</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="H19" s="7">
         <v>282</v>
@@ -3171,13 +3138,13 @@
         <v>290552</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M19" s="7">
         <v>529</v>
@@ -3186,13 +3153,13 @@
         <v>542262</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3207,13 +3174,13 @@
         <v>1341758</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="H20" s="7">
         <v>1168</v>
@@ -3222,13 +3189,13 @@
         <v>1190820</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M20" s="7">
         <v>2470</v>
@@ -3237,13 +3204,13 @@
         <v>2532578</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3255,7 +3222,7 @@
         <v>1649</v>
       </c>
       <c r="D21" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>80</v>
@@ -3299,7 +3266,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B22" s="5">
         <v>7</v>
@@ -3317,7 +3284,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -3332,7 +3299,7 @@
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -3347,7 +3314,7 @@
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>140</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3368,7 +3335,7 @@
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -3383,7 +3350,7 @@
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -3398,7 +3365,7 @@
         <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>140</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3413,13 +3380,13 @@
         <v>2452</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>27</v>
+        <v>139</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -3428,13 +3395,13 @@
         <v>1274</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M24" s="7">
         <v>3</v>
@@ -3443,13 +3410,13 @@
         <v>3726</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3464,13 +3431,13 @@
         <v>1929</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -3479,13 +3446,13 @@
         <v>2108</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -3494,13 +3461,13 @@
         <v>4037</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3515,13 +3482,13 @@
         <v>7848</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>30</v>
+        <v>147</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H26" s="7">
         <v>5</v>
@@ -3530,13 +3497,13 @@
         <v>4898</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M26" s="7">
         <v>13</v>
@@ -3545,10 +3512,10 @@
         <v>12746</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>155</v>
@@ -3569,7 +3536,7 @@
         <v>156</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>157</v>
@@ -3772,7 +3739,7 @@
         <v>909</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>10</v>
@@ -3787,13 +3754,13 @@
         <v>5332</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M31" s="7">
         <v>6</v>
@@ -3805,10 +3772,10 @@
         <v>17</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>85</v>
+        <v>182</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>140</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3823,13 +3790,13 @@
         <v>6319</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H32" s="7">
         <v>6</v>
@@ -3838,13 +3805,13 @@
         <v>6688</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>140</v>
+        <v>96</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>182</v>
+        <v>17</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M32" s="7">
         <v>13</v>
@@ -3853,13 +3820,13 @@
         <v>13008</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>140</v>
+        <v>96</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>144</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3874,13 +3841,13 @@
         <v>23275</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>91</v>
+        <v>187</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H33" s="7">
         <v>33</v>
@@ -3889,13 +3856,13 @@
         <v>34559</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K33" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="K33" s="7" t="s">
-        <v>188</v>
-      </c>
       <c r="L33" s="7" t="s">
-        <v>146</v>
+        <v>31</v>
       </c>
       <c r="M33" s="7">
         <v>57</v>
@@ -3904,13 +3871,13 @@
         <v>57835</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3925,13 +3892,13 @@
         <v>40692</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>15</v>
+        <v>193</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H34" s="7">
         <v>73</v>
@@ -3940,13 +3907,13 @@
         <v>76058</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M34" s="7">
         <v>116</v>
@@ -3955,13 +3922,13 @@
         <v>116750</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3976,13 +3943,13 @@
         <v>103344</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>199</v>
+        <v>156</v>
       </c>
       <c r="H35" s="7">
         <v>153</v>
@@ -3991,13 +3958,13 @@
         <v>158026</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M35" s="7">
         <v>262</v>
@@ -4006,13 +3973,13 @@
         <v>261370</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4027,13 +3994,13 @@
         <v>229882</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H36" s="7">
         <v>344</v>
@@ -4042,13 +4009,13 @@
         <v>351373</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M36" s="7">
         <v>577</v>
@@ -4057,13 +4024,13 @@
         <v>581254</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4078,13 +4045,13 @@
         <v>570646</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H37" s="7">
         <v>677</v>
@@ -4093,13 +4060,13 @@
         <v>695455</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M37" s="7">
         <v>1244</v>
@@ -4108,13 +4075,13 @@
         <v>1266101</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4126,16 +4093,16 @@
         <v>2230</v>
       </c>
       <c r="D38" s="7">
-        <v>2301477</v>
+        <v>2301476</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H38" s="7">
         <v>2006</v>
@@ -4144,13 +4111,13 @@
         <v>2051706</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M38" s="7">
         <v>4236</v>
@@ -4159,13 +4126,13 @@
         <v>4353182</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4177,7 +4144,7 @@
         <v>3214</v>
       </c>
       <c r="D39" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>80</v>
@@ -4221,7 +4188,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -4240,7 +4207,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EAD0919-39EF-427B-95D4-AA81350A1E50}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7FC714C-3DD5-4455-8DDF-52AB7F7937F7}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4257,7 +4224,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4370,7 +4337,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>88</v>
+        <v>183</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -4382,10 +4349,10 @@
         <v>16</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -4394,13 +4361,13 @@
         <v>3058</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>93</v>
+        <v>238</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>237</v>
+        <v>182</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4415,13 +4382,13 @@
         <v>8439</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H5" s="7">
         <v>18</v>
@@ -4430,13 +4397,13 @@
         <v>18824</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M5" s="7">
         <v>26</v>
@@ -4445,13 +4412,13 @@
         <v>27263</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>143</v>
+        <v>243</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>243</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4466,13 +4433,13 @@
         <v>28518</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H6" s="7">
         <v>47</v>
@@ -4484,10 +4451,10 @@
         <v>161</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M6" s="7">
         <v>71</v>
@@ -4496,13 +4463,13 @@
         <v>78236</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>251</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4517,7 +4484,7 @@
         <v>68403</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>252</v>
@@ -4550,10 +4517,10 @@
         <v>257</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4568,13 +4535,13 @@
         <v>94253</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="H8" s="7">
         <v>140</v>
@@ -4583,13 +4550,13 @@
         <v>147230</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>210</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>54</v>
+        <v>264</v>
       </c>
       <c r="M8" s="7">
         <v>226</v>
@@ -4598,13 +4565,13 @@
         <v>241483</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4619,13 +4586,13 @@
         <v>140870</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H9" s="7">
         <v>227</v>
@@ -4634,13 +4601,13 @@
         <v>242901</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M9" s="7">
         <v>355</v>
@@ -4649,13 +4616,13 @@
         <v>383771</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4670,13 +4637,13 @@
         <v>204794</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H10" s="7">
         <v>307</v>
@@ -4685,13 +4652,13 @@
         <v>329119</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M10" s="7">
         <v>494</v>
@@ -4700,13 +4667,13 @@
         <v>533914</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4721,13 +4688,13 @@
         <v>429367</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H11" s="7">
         <v>411</v>
@@ -4736,13 +4703,13 @@
         <v>446570</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M11" s="7">
         <v>822</v>
@@ -4751,13 +4718,13 @@
         <v>875937</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4831,7 +4798,7 @@
         <v>10</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4846,7 +4813,7 @@
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -4855,7 +4822,7 @@
         <v>1051</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>10</v>
@@ -4882,7 +4849,7 @@
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -4891,13 +4858,13 @@
         <v>1835</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -4912,7 +4879,7 @@
         <v>10</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4927,13 +4894,13 @@
         <v>6115</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>295</v>
+        <v>192</v>
       </c>
       <c r="H15" s="7">
         <v>4</v>
@@ -4942,13 +4909,13 @@
         <v>4274</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>296</v>
+        <v>20</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>297</v>
+        <v>94</v>
       </c>
       <c r="M15" s="7">
         <v>10</v>
@@ -4957,13 +4924,13 @@
         <v>10390</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>299</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4978,13 +4945,13 @@
         <v>17536</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -4993,13 +4960,13 @@
         <v>10100</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>24</v>
+        <v>150</v>
       </c>
       <c r="M16" s="7">
         <v>25</v>
@@ -5008,13 +4975,13 @@
         <v>27635</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>25</v>
+        <v>301</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>304</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5029,13 +4996,13 @@
         <v>41665</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>159</v>
+        <v>302</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>27</v>
+        <v>303</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>305</v>
+        <v>248</v>
       </c>
       <c r="H17" s="7">
         <v>28</v>
@@ -5044,13 +5011,13 @@
         <v>34112</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>306</v>
+        <v>246</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>145</v>
+        <v>304</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="M17" s="7">
         <v>68</v>
@@ -5059,13 +5026,13 @@
         <v>75777</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5080,13 +5047,13 @@
         <v>98166</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="H18" s="7">
         <v>97</v>
@@ -5095,13 +5062,13 @@
         <v>105480</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>160</v>
+        <v>312</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="M18" s="7">
         <v>187</v>
@@ -5110,13 +5077,13 @@
         <v>203646</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="P18" s="7" t="s">
-        <v>317</v>
-      </c>
       <c r="Q18" s="7" t="s">
-        <v>318</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5131,13 +5098,13 @@
         <v>302324</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="H19" s="7">
         <v>289</v>
@@ -5146,13 +5113,13 @@
         <v>316317</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>270</v>
+        <v>217</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="M19" s="7">
         <v>569</v>
@@ -5161,13 +5128,13 @@
         <v>618642</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5182,13 +5149,13 @@
         <v>1497101</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="H20" s="7">
         <v>1206</v>
@@ -5197,13 +5164,13 @@
         <v>1285684</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="M20" s="7">
         <v>2629</v>
@@ -5212,13 +5179,13 @@
         <v>2782785</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5274,7 +5241,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B22" s="5">
         <v>7</v>
@@ -5292,7 +5259,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -5307,7 +5274,7 @@
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -5337,13 +5304,13 @@
         <v>2145</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -5358,7 +5325,7 @@
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
@@ -5373,7 +5340,7 @@
         <v>10</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>33</v>
+        <v>335</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5394,7 +5361,7 @@
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
@@ -5403,13 +5370,13 @@
         <v>4423</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>339</v>
+        <v>20</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="M24" s="7">
         <v>4</v>
@@ -5421,10 +5388,10 @@
         <v>25</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>143</v>
+        <v>338</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5439,13 +5406,13 @@
         <v>4040</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>98</v>
+        <v>241</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>88</v>
+        <v>183</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -5454,13 +5421,13 @@
         <v>2782</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>297</v>
+        <v>94</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>247</v>
+        <v>340</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -5469,13 +5436,13 @@
         <v>6822</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>188</v>
+        <v>89</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5490,13 +5457,13 @@
         <v>6139</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -5505,13 +5472,13 @@
         <v>2004</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>345</v>
+        <v>303</v>
       </c>
       <c r="M26" s="7">
         <v>8</v>
@@ -5520,13 +5487,13 @@
         <v>8143</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5541,13 +5508,13 @@
         <v>15221</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="H27" s="7">
         <v>14</v>
@@ -5556,10 +5523,10 @@
         <v>16153</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>349</v>
@@ -5747,13 +5714,13 @@
         <v>1051</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>294</v>
+        <v>14</v>
       </c>
       <c r="H31" s="7">
         <v>3</v>
@@ -5765,7 +5732,7 @@
         <v>17</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>16</v>
@@ -5777,13 +5744,13 @@
         <v>4109</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>371</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>294</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5798,13 +5765,13 @@
         <v>10584</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>294</v>
+        <v>14</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>302</v>
+        <v>372</v>
       </c>
       <c r="H32" s="7">
         <v>20</v>
@@ -5813,13 +5780,13 @@
         <v>20659</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>372</v>
+        <v>148</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>300</v>
+        <v>191</v>
       </c>
       <c r="M32" s="7">
         <v>29</v>
@@ -5828,13 +5795,13 @@
         <v>31243</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>87</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>373</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5849,13 +5816,13 @@
         <v>34633</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="H33" s="7">
         <v>55</v>
@@ -5867,10 +5834,10 @@
         <v>375</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>376</v>
+        <v>153</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>159</v>
+        <v>302</v>
       </c>
       <c r="M33" s="7">
         <v>85</v>
@@ -5879,13 +5846,13 @@
         <v>93049</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5900,13 +5867,13 @@
         <v>89979</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>382</v>
       </c>
       <c r="H34" s="7">
         <v>105</v>
@@ -5915,13 +5882,13 @@
         <v>113257</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>384</v>
       </c>
       <c r="M34" s="7">
         <v>188</v>
@@ -5930,13 +5897,13 @@
         <v>203236</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5957,7 +5924,7 @@
         <v>388</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>248</v>
+        <v>389</v>
       </c>
       <c r="H35" s="7">
         <v>170</v>
@@ -5966,13 +5933,13 @@
         <v>183346</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>45</v>
+        <v>390</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="M35" s="7">
         <v>302</v>
@@ -5981,13 +5948,13 @@
         <v>325402</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>37</v>
+        <v>394</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>43</v>
+        <v>395</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6002,13 +5969,13 @@
         <v>254256</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>394</v>
+        <v>258</v>
       </c>
       <c r="H36" s="7">
         <v>338</v>
@@ -6017,13 +5984,13 @@
         <v>364534</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="M36" s="7">
         <v>569</v>
@@ -6032,13 +5999,13 @@
         <v>618790</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>46</v>
+        <v>402</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6053,13 +6020,13 @@
         <v>590560</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="H37" s="7">
         <v>666</v>
@@ -6068,13 +6035,13 @@
         <v>725292</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="M37" s="7">
         <v>1209</v>
@@ -6083,13 +6050,13 @@
         <v>1315852</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>407</v>
+        <v>167</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6104,13 +6071,13 @@
         <v>2296664</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="H38" s="7">
         <v>1937</v>
@@ -6119,13 +6086,13 @@
         <v>2085667</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="M38" s="7">
         <v>4110</v>
@@ -6134,13 +6101,13 @@
         <v>4382330</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6196,7 +6163,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -6215,7 +6182,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82645E5A-FF33-47E9-A470-17718A66EEB8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0991751F-3AC2-4A02-B18B-BE037A3A6185}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6232,7 +6199,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6345,7 +6312,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>339</v>
+        <v>422</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -6354,13 +6321,13 @@
         <v>1213</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>419</v>
+        <v>148</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -6369,13 +6336,13 @@
         <v>1213</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6390,13 +6357,13 @@
         <v>5466</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>296</v>
+        <v>422</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>146</v>
+        <v>424</v>
       </c>
       <c r="H5" s="7">
         <v>9</v>
@@ -6405,13 +6372,13 @@
         <v>10399</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>186</v>
+        <v>425</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>421</v>
+        <v>188</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>306</v>
+        <v>426</v>
       </c>
       <c r="M5" s="7">
         <v>15</v>
@@ -6420,13 +6387,13 @@
         <v>15865</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>240</v>
+        <v>146</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>109</v>
+        <v>427</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6441,13 +6408,13 @@
         <v>17176</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="H6" s="7">
         <v>31</v>
@@ -6456,13 +6423,13 @@
         <v>35535</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>105</v>
+        <v>432</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="M6" s="7">
         <v>50</v>
@@ -6471,13 +6438,13 @@
         <v>52711</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>156</v>
+        <v>436</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6492,13 +6459,13 @@
         <v>52873</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="H7" s="7">
         <v>67</v>
@@ -6507,13 +6474,13 @@
         <v>79020</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>208</v>
+        <v>440</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="M7" s="7">
         <v>123</v>
@@ -6522,13 +6489,13 @@
         <v>131893</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6543,13 +6510,13 @@
         <v>68841</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="H8" s="7">
         <v>82</v>
@@ -6558,13 +6525,13 @@
         <v>97036</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="M8" s="7">
         <v>156</v>
@@ -6573,13 +6540,13 @@
         <v>165877</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>444</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6594,13 +6561,13 @@
         <v>110297</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>446</v>
+        <v>168</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>448</v>
+        <v>353</v>
       </c>
       <c r="H9" s="7">
         <v>160</v>
@@ -6609,13 +6576,13 @@
         <v>187665</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="M9" s="7">
         <v>277</v>
@@ -6624,13 +6591,13 @@
         <v>297962</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>451</v>
+        <v>319</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>452</v>
+        <v>317</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6645,13 +6612,13 @@
         <v>154157</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="H10" s="7">
         <v>242</v>
@@ -6660,13 +6627,13 @@
         <v>268252</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="M10" s="7">
         <v>397</v>
@@ -6675,13 +6642,13 @@
         <v>422409</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6696,13 +6663,13 @@
         <v>345536</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="H11" s="7">
         <v>300</v>
@@ -6711,13 +6678,13 @@
         <v>315540</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="M11" s="7">
         <v>635</v>
@@ -6726,13 +6693,13 @@
         <v>661077</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6806,7 +6773,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -6821,7 +6788,7 @@
         <v>10</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -6830,13 +6797,13 @@
         <v>1033</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>93</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6857,7 +6824,7 @@
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -6872,7 +6839,7 @@
         <v>10</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -6887,7 +6854,7 @@
         <v>10</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6902,13 +6869,13 @@
         <v>12781</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>295</v>
+        <v>476</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>473</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
         <v>10</v>
@@ -6917,13 +6884,13 @@
         <v>11681</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>293</v>
+        <v>97</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>189</v>
       </c>
       <c r="M15" s="7">
         <v>21</v>
@@ -6932,13 +6899,13 @@
         <v>24463</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>475</v>
+        <v>372</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>147</v>
+        <v>99</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>15</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6953,13 +6920,13 @@
         <v>27620</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>148</v>
+        <v>479</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -6968,13 +6935,13 @@
         <v>24253</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>478</v>
+        <v>300</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>479</v>
+        <v>106</v>
       </c>
       <c r="M16" s="7">
         <v>46</v>
@@ -6983,13 +6950,13 @@
         <v>51873</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>480</v>
+        <v>193</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7004,13 +6971,13 @@
         <v>48791</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H17" s="7">
         <v>44</v>
@@ -7019,13 +6986,13 @@
         <v>48784</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>485</v>
+        <v>340</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>32</v>
+        <v>144</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>382</v>
+        <v>486</v>
       </c>
       <c r="M17" s="7">
         <v>90</v>
@@ -7034,13 +7001,13 @@
         <v>97575</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7055,13 +7022,13 @@
         <v>127817</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>257</v>
+        <v>492</v>
       </c>
       <c r="H18" s="7">
         <v>125</v>
@@ -7070,13 +7037,13 @@
         <v>139428</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="M18" s="7">
         <v>248</v>
@@ -7085,13 +7052,13 @@
         <v>267246</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7106,13 +7073,13 @@
         <v>364650</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="H19" s="7">
         <v>351</v>
@@ -7121,13 +7088,13 @@
         <v>375994</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="M19" s="7">
         <v>695</v>
@@ -7136,13 +7103,13 @@
         <v>740644</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7157,13 +7124,13 @@
         <v>1494725</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>507</v>
+        <v>369</v>
       </c>
       <c r="H20" s="7">
         <v>1357</v>
@@ -7172,13 +7139,13 @@
         <v>1386221</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M20" s="7">
         <v>2758</v>
@@ -7187,13 +7154,13 @@
         <v>2880946</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7249,7 +7216,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B22" s="5">
         <v>7</v>
@@ -7267,7 +7234,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -7282,7 +7249,7 @@
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -7297,7 +7264,7 @@
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7312,7 +7279,7 @@
         <v>924</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>514</v>
+        <v>295</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>10</v>
@@ -7327,13 +7294,13 @@
         <v>1033</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>516</v>
+        <v>335</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -7348,7 +7315,7 @@
         <v>10</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>475</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7369,7 +7336,7 @@
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -7384,7 +7351,7 @@
         <v>10</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>107</v>
+        <v>516</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -7399,7 +7366,7 @@
         <v>10</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>517</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7414,13 +7381,13 @@
         <v>3335</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>297</v>
+        <v>94</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -7429,13 +7396,13 @@
         <v>4354</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>140</v>
+        <v>96</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>520</v>
+        <v>426</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -7444,13 +7411,13 @@
         <v>7689</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>100</v>
+        <v>518</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>521</v>
+        <v>294</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>522</v>
+        <v>307</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7465,13 +7432,13 @@
         <v>12555</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>524</v>
+        <v>243</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>525</v>
+        <v>436</v>
       </c>
       <c r="H26" s="7">
         <v>8</v>
@@ -7483,10 +7450,10 @@
         <v>375</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>526</v>
+        <v>89</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>346</v>
+        <v>486</v>
       </c>
       <c r="M26" s="7">
         <v>19</v>
@@ -7495,13 +7462,13 @@
         <v>21585</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>111</v>
+        <v>520</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>527</v>
+        <v>339</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7516,13 +7483,13 @@
         <v>37403</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>265</v>
+        <v>215</v>
       </c>
       <c r="H27" s="7">
         <v>23</v>
@@ -7531,13 +7498,13 @@
         <v>29191</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>424</v>
+        <v>486</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="M27" s="7">
         <v>56</v>
@@ -7546,13 +7513,13 @@
         <v>66594</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>533</v>
+        <v>112</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7567,13 +7534,13 @@
         <v>100155</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="H28" s="7">
         <v>91</v>
@@ -7582,13 +7549,13 @@
         <v>100073</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="M28" s="7">
         <v>181</v>
@@ -7597,13 +7564,13 @@
         <v>200228</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7618,13 +7585,13 @@
         <v>392514</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="H29" s="7">
         <v>398</v>
@@ -7633,13 +7600,13 @@
         <v>404462</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="M29" s="7">
         <v>762</v>
@@ -7648,13 +7615,13 @@
         <v>796976</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>551</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7728,7 +7695,7 @@
         <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H31" s="7">
         <v>2</v>
@@ -7737,13 +7704,13 @@
         <v>2247</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="M31" s="7">
         <v>2</v>
@@ -7752,13 +7719,13 @@
         <v>2247</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7773,13 +7740,13 @@
         <v>6391</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="H32" s="7">
         <v>11</v>
@@ -7788,13 +7755,13 @@
         <v>12338</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>297</v>
+        <v>94</v>
       </c>
       <c r="M32" s="7">
         <v>18</v>
@@ -7803,13 +7770,13 @@
         <v>18728</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>514</v>
+        <v>295</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7824,13 +7791,13 @@
         <v>29958</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>474</v>
+        <v>148</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H33" s="7">
         <v>42</v>
@@ -7839,13 +7806,13 @@
         <v>48213</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>552</v>
+        <v>150</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="M33" s="7">
         <v>72</v>
@@ -7854,13 +7821,13 @@
         <v>78170</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>554</v>
+        <v>335</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>189</v>
+        <v>545</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>239</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7875,13 +7842,13 @@
         <v>83828</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>337</v>
+        <v>520</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>527</v>
+        <v>485</v>
       </c>
       <c r="H34" s="7">
         <v>90</v>
@@ -7890,13 +7857,13 @@
         <v>107627</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>105</v>
+        <v>548</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>557</v>
+        <v>161</v>
       </c>
       <c r="M34" s="7">
         <v>175</v>
@@ -7905,13 +7872,13 @@
         <v>191455</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7926,13 +7893,13 @@
         <v>130186</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>561</v>
+        <v>486</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="H35" s="7">
         <v>134</v>
@@ -7941,13 +7908,13 @@
         <v>154850</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>564</v>
+        <v>113</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="M35" s="7">
         <v>265</v>
@@ -7959,10 +7926,10 @@
         <v>39</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>391</v>
+        <v>556</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7977,13 +7944,13 @@
         <v>275517</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="H36" s="7">
         <v>308</v>
@@ -7992,13 +7959,13 @@
         <v>356284</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="M36" s="7">
         <v>581</v>
@@ -8007,13 +7974,13 @@
         <v>631801</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>573</v>
+        <v>559</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8028,13 +7995,13 @@
         <v>618962</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="H37" s="7">
         <v>684</v>
@@ -8043,13 +8010,13 @@
         <v>744318</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="M37" s="7">
         <v>1273</v>
@@ -8058,13 +8025,13 @@
         <v>1363281</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>583</v>
+        <v>218</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8079,13 +8046,13 @@
         <v>2232775</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="H38" s="7">
         <v>2055</v>
@@ -8094,13 +8061,13 @@
         <v>2106224</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="M38" s="7">
         <v>4155</v>
@@ -8109,13 +8076,13 @@
         <v>4338999</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>416</v>
+        <v>580</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8171,7 +8138,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -8190,7 +8157,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{971E928B-6CFB-49D7-8A3A-170E920E73F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6853FB80-7143-48A2-8C80-52F808727924}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8207,7 +8174,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8320,7 +8287,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -8335,7 +8302,7 @@
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>93</v>
+        <v>238</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -8371,7 +8338,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -8386,7 +8353,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>93</v>
+        <v>238</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -8422,7 +8389,7 @@
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -8437,7 +8404,7 @@
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>93</v>
+        <v>238</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -8473,7 +8440,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -8488,7 +8455,7 @@
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>93</v>
+        <v>238</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -8524,7 +8491,7 @@
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -8539,7 +8506,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>93</v>
+        <v>238</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -8575,7 +8542,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -8590,7 +8557,7 @@
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>93</v>
+        <v>238</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -8626,7 +8593,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -8641,7 +8608,7 @@
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>93</v>
+        <v>238</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -8671,10 +8638,10 @@
         <v>541634</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>80</v>
@@ -8686,10 +8653,10 @@
         <v>835953</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>80</v>
@@ -8701,10 +8668,10 @@
         <v>1377586</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>80</v>
@@ -8781,7 +8748,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -8796,7 +8763,7 @@
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -8811,7 +8778,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>237</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8832,7 +8799,7 @@
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -8847,7 +8814,7 @@
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -8862,7 +8829,7 @@
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>237</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8883,7 +8850,7 @@
         <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -8898,7 +8865,7 @@
         <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -8913,7 +8880,7 @@
         <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>237</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8934,7 +8901,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -8949,7 +8916,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -8964,7 +8931,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>237</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8985,7 +8952,7 @@
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -9000,7 +8967,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -9015,7 +8982,7 @@
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>237</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9036,7 +9003,7 @@
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -9051,7 +9018,7 @@
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -9066,7 +9033,7 @@
         <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>237</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9087,7 +9054,7 @@
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -9102,7 +9069,7 @@
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -9117,7 +9084,7 @@
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>237</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9132,10 +9099,10 @@
         <v>2162022</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>80</v>
@@ -9147,10 +9114,10 @@
         <v>2249521</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>80</v>
@@ -9162,10 +9129,10 @@
         <v>4411543</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>80</v>
@@ -9224,7 +9191,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B22" s="5">
         <v>7</v>
@@ -9242,7 +9209,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -9257,7 +9224,7 @@
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -9272,7 +9239,7 @@
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9293,7 +9260,7 @@
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -9308,7 +9275,7 @@
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -9323,7 +9290,7 @@
         <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -9344,7 +9311,7 @@
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -9359,7 +9326,7 @@
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -9374,7 +9341,7 @@
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9395,7 +9362,7 @@
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -9410,7 +9377,7 @@
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -9425,7 +9392,7 @@
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9446,7 +9413,7 @@
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -9461,7 +9428,7 @@
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -9476,7 +9443,7 @@
         <v>11</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9497,7 +9464,7 @@
         <v>11</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -9512,7 +9479,7 @@
         <v>11</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -9527,7 +9494,7 @@
         <v>11</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9548,7 +9515,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -9563,7 +9530,7 @@
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -9578,7 +9545,7 @@
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9593,10 +9560,10 @@
         <v>673039</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>80</v>
@@ -9608,10 +9575,10 @@
         <v>713886</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>80</v>
@@ -9623,10 +9590,10 @@
         <v>1386926</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>80</v>
@@ -9703,7 +9670,7 @@
         <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -9718,7 +9685,7 @@
         <v>11</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>237</v>
+        <v>182</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -9754,7 +9721,7 @@
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -9769,7 +9736,7 @@
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>237</v>
+        <v>182</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -9805,7 +9772,7 @@
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -9820,7 +9787,7 @@
         <v>11</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>237</v>
+        <v>182</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -9856,7 +9823,7 @@
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -9871,7 +9838,7 @@
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>237</v>
+        <v>182</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -9907,7 +9874,7 @@
         <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -9922,7 +9889,7 @@
         <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>237</v>
+        <v>182</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -9958,7 +9925,7 @@
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -9973,7 +9940,7 @@
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>237</v>
+        <v>182</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -10009,7 +9976,7 @@
         <v>11</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -10024,7 +9991,7 @@
         <v>11</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>237</v>
+        <v>182</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -10054,10 +10021,10 @@
         <v>3376694</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>80</v>
@@ -10069,10 +10036,10 @@
         <v>3799360</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>80</v>
@@ -10084,10 +10051,10 @@
         <v>7176054</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="Q38" s="7" t="s">
         <v>80</v>
@@ -10146,7 +10113,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/cron_index-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/cron_index-Estudios-trans_orig.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,14</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,97</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,56; 1,86</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,04; 2,25</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,88; 2,06</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,82</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,51; 0,8</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,71; 1,57</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,68; 1,17</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,68</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,63; 0,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,57; 0,71</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,62; 0,73</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,0</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,67; 0,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,01; 1,56</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,91; 1,21</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/cron_index-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/cron_index-Estudios-trans_orig.xlsx
@@ -724,12 +724,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,88; 1,03</t>
+          <t>0,86; 1,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,17; 1,37</t>
+          <t>1,17; 1,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,27 +739,27 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,56; 1,86</t>
+          <t>1,55; 1,87</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,23; 1,39</t>
+          <t>1,24; 1,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,43; 1,61</t>
+          <t>1,45; 1,62</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,41; 1,61</t>
+          <t>1,4; 1,62</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,04; 2,25</t>
+          <t>2,04; 2,26</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -864,7 +864,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,28; 0,34</t>
+          <t>0,27; 0,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -874,17 +874,17 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,41; 0,49</t>
+          <t>0,42; 0,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,51; 0,8</t>
+          <t>0,49; 0,8</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,32; 0,39</t>
+          <t>0,31; 0,38</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -894,12 +894,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,45; 0,54</t>
+          <t>0,44; 0,53</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,71; 1,57</t>
+          <t>0,71; 1,5</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,68; 1,17</t>
+          <t>0,69; 1,18</t>
         </is>
       </c>
     </row>
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,25; 0,38</t>
+          <t>0,24; 0,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,27; 0,43</t>
+          <t>0,27; 0,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,36; 0,5</t>
+          <t>0,36; 0,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1029,12 +1029,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,27; 0,42</t>
+          <t>0,26; 0,41</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,32; 0,46</t>
+          <t>0,33; 0,46</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1054,12 +1054,12 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,35; 0,46</t>
+          <t>0,36; 0,46</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,62; 0,73</t>
+          <t>0,62; 0,74</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,58; 0,67</t>
+          <t>0,58; 0,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,67; 0,94</t>
+          <t>0,66; 0,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,17 +1169,17 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,77; 0,86</t>
+          <t>0,78; 0,86</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,72; 0,81</t>
+          <t>0,72; 0,8</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,01; 1,56</t>
+          <t>1,01; 1,49</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,91; 1,21</t>
+          <t>0,9; 1,2</t>
         </is>
       </c>
     </row>
